--- a/Structural/Behavioral Model/CSPEC/DriversCSPEC.xlsx
+++ b/Structural/Behavioral Model/CSPEC/DriversCSPEC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadi/Desktop/UberSEA-master/Structural/Behavioral Model/CSPEC/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,18 +35,6 @@
     <t>Logout</t>
   </si>
   <si>
-    <t>اعلام آمادگی برای سفر</t>
-  </si>
-  <si>
-    <t>لغو آمادگی</t>
-  </si>
-  <si>
-    <t>اعلام شروع سفر</t>
-  </si>
-  <si>
-    <t>اعلام پایان سفر</t>
-  </si>
-  <si>
     <t>State: 0</t>
   </si>
   <si>
@@ -57,6 +45,18 @@
   </si>
   <si>
     <t>State: 3</t>
+  </si>
+  <si>
+    <t>Ready for travel</t>
+  </si>
+  <si>
+    <t>Not ready for travel</t>
+  </si>
+  <si>
+    <t>Passenger found</t>
+  </si>
+  <si>
+    <t>Travel finished</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -390,16 +390,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -447,7 +447,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>-7</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>-10</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>-13</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>-16</v>

--- a/Structural/Behavioral Model/CSPEC/DriversCSPEC.xlsx
+++ b/Structural/Behavioral Model/CSPEC/DriversCSPEC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadi/Desktop/UberSEA-master/Structural/Behavioral Model/CSPEC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadi/Downloads/Telegram Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Driver CSPEC</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Travel finished</t>
+  </si>
+  <si>
+    <t>Check Notification</t>
   </si>
 </sst>
 </file>
@@ -377,7 +380,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,11 +529,21 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-19</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-20</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-21</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
